--- a/rocketmq/src/test/resources/1.xlsx
+++ b/rocketmq/src/test/resources/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/sources/evan/java/evan-springcloud/evan-libraries/rocketmq/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49A0B7B-D685-1847-A28D-2FA1A96C3272}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3720FFE5-10C3-6D48-9C79-B2C5F5292F79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25320" yWindow="3260" windowWidth="10000" windowHeight="15580" xr2:uid="{AEE0D758-3DD9-414D-8EEC-FAB055ABC46F}"/>
+    <workbookView xWindow="10940" yWindow="940" windowWidth="10000" windowHeight="15580" xr2:uid="{AEE0D758-3DD9-414D-8EEC-FAB055ABC46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6470</v>
+        <v>4651</v>
       </c>
       <c r="C2">
-        <v>3530</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6468</v>
+        <v>4631</v>
       </c>
       <c r="C3">
-        <v>3532</v>
+        <v>5439</v>
       </c>
     </row>
   </sheetData>
